--- a/res12.xlsx
+++ b/res12.xlsx
@@ -512,7 +512,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1180255</t>
+          <t>1180255.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -534,7 +534,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1180274</t>
+          <t>1180278</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -738,7 +738,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1180155</t>
+          <t>11380155</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
